--- a/branches/EndNote/ConferenceList.xlsx
+++ b/branches/EndNote/ConferenceList.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Conference" sheetId="1" r:id="rId1"/>
     <sheet name="Journal" sheetId="5" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">표1[[#All],[Conference]:[Character]]</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Conference!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="141">
   <si>
     <t>Conference</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +92,6 @@
   </si>
   <si>
     <t>ACM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IEEE/AESS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -412,10 +412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.percom.org/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.plansconference.org/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,11 +536,6 @@
   </si>
   <si>
     <t>Vancouver, Canada</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IEEE
-Computer Society</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -647,6 +638,44 @@
   </si>
   <si>
     <t>All Types of Sensing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE
+Communications
+Society</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE
+Computer
+Society</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009-04-27
+2009-05-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.percom.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE
+Aerospace and
+Electronic
+Systems Society</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM / IEEE
+Signal Processing
+Society</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,12 +708,18 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -705,7 +740,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,6 +783,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -755,31 +796,25 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -788,6 +823,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -837,7 +878,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A2:K29" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:K28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <sortState ref="A3:K27">
     <sortCondition ref="B3:B27"/>
     <sortCondition ref="C3:C27"/>
@@ -861,21 +902,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표1_4" displayName="표1_4" ref="A2:I6" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표1_4" displayName="표1_4" ref="A2:I6" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <sortState ref="A3:K27">
     <sortCondition ref="B3:B27"/>
     <sortCondition ref="C3:C27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Journal" dataDxfId="10"/>
-    <tableColumn id="2" name="Submission" dataDxfId="9"/>
-    <tableColumn id="11" name="Notification" dataDxfId="8"/>
-    <tableColumn id="3" name="Impact Factor" dataDxfId="0"/>
-    <tableColumn id="6" name="Sponsor" dataDxfId="7"/>
-    <tableColumn id="7" name="Topic" dataDxfId="6"/>
-    <tableColumn id="8" name="Target Topic" dataDxfId="5"/>
-    <tableColumn id="9" name="Character" dataDxfId="4"/>
-    <tableColumn id="10" name="Web" dataDxfId="3" dataCellStyle="하이퍼링크"/>
+    <tableColumn id="1" name="Journal" dataDxfId="8"/>
+    <tableColumn id="2" name="Submission" dataDxfId="7"/>
+    <tableColumn id="11" name="Notification" dataDxfId="6"/>
+    <tableColumn id="3" name="Impact Factor" dataDxfId="5"/>
+    <tableColumn id="6" name="Sponsor" dataDxfId="4"/>
+    <tableColumn id="7" name="Topic" dataDxfId="3"/>
+    <tableColumn id="8" name="Target Topic" dataDxfId="2"/>
+    <tableColumn id="9" name="Character" dataDxfId="1"/>
+    <tableColumn id="10" name="Web" dataDxfId="0" dataCellStyle="하이퍼링크"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1166,612 +1207,635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="57.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="38.375" style="8" customWidth="1"/>
     <col min="10" max="10" width="39.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="43.625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="2">
+        <v>39913</v>
+      </c>
+      <c r="C2" s="2">
+        <v>39946</v>
+      </c>
+      <c r="D2" s="2">
+        <v>39995</v>
+      </c>
+      <c r="E2" s="2">
+        <v>39997</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1">
+    </row>
+    <row r="3" spans="1:11" ht="66">
       <c r="A3" s="3" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
-        <v>39913</v>
+        <v>39920</v>
       </c>
       <c r="C3" s="2">
-        <v>39946</v>
+        <v>39979</v>
       </c>
       <c r="D3" s="2">
-        <v>39995</v>
+        <v>40086</v>
       </c>
       <c r="E3" s="2">
-        <v>39997</v>
+        <v>40089</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="J3" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="66">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="49.5">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2">
-        <v>39920</v>
+      <c r="B4" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="C4" s="2">
-        <v>39979</v>
+        <v>39995</v>
       </c>
       <c r="D4" s="2">
-        <v>40086</v>
+        <v>40072</v>
       </c>
       <c r="E4" s="2">
-        <v>40089</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>40074</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="I4" s="4" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="49.5">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2">
-        <v>39930</v>
+        <v>39933</v>
       </c>
       <c r="C5" s="2">
-        <v>39995</v>
+        <v>39965</v>
       </c>
       <c r="D5" s="2">
-        <v>40072</v>
+        <v>40054</v>
       </c>
       <c r="E5" s="2">
-        <v>40074</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>40056</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="J5" s="4"/>
       <c r="K5" s="10" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="49.5">
       <c r="A6" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2">
-        <v>39933</v>
+        <v>39934</v>
       </c>
       <c r="C6" s="2">
+        <v>39993</v>
+      </c>
+      <c r="D6" s="2">
+        <v>40112</v>
+      </c>
+      <c r="E6" s="2">
+        <v>40115</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2">
+        <v>39941</v>
+      </c>
+      <c r="C7" s="2">
+        <v>39959</v>
+      </c>
+      <c r="D7" s="2">
+        <v>39986</v>
+      </c>
+      <c r="E7" s="2">
+        <v>39988</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="82.5">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2">
         <v>39965</v>
       </c>
-      <c r="D6" s="2">
-        <v>40054</v>
-      </c>
-      <c r="E6" s="2">
-        <v>40056</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="49.5">
-      <c r="A7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="2">
-        <v>39934</v>
-      </c>
-      <c r="C7" s="2">
-        <v>39993</v>
-      </c>
-      <c r="D7" s="2">
-        <v>40112</v>
-      </c>
-      <c r="E7" s="2">
-        <v>40115</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2">
-        <v>39941</v>
-      </c>
       <c r="C8" s="2">
-        <v>39959</v>
+        <v>40026</v>
       </c>
       <c r="D8" s="2">
-        <v>39986</v>
+        <v>40163</v>
       </c>
       <c r="E8" s="2">
-        <v>39988</v>
+        <v>40165</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="J8" s="4" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="82.5">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="66">
+      <c r="A9" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="B9" s="2">
         <v>39965</v>
       </c>
       <c r="C9" s="2">
+        <v>40042</v>
+      </c>
+      <c r="D9" s="2">
+        <v>40187</v>
+      </c>
+      <c r="E9" s="2">
+        <v>40190</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="49.5">
+      <c r="A10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2">
+        <v>40018</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40138</v>
+      </c>
+      <c r="D10" s="2">
+        <v>40252</v>
+      </c>
+      <c r="E10" s="2">
+        <v>40256</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2">
         <v>40026</v>
       </c>
-      <c r="D9" s="2">
-        <v>40163</v>
-      </c>
-      <c r="E9" s="2">
-        <v>40165</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="66">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2">
-        <v>39965</v>
-      </c>
-      <c r="C10" s="2">
-        <v>40042</v>
-      </c>
-      <c r="D10" s="2">
-        <v>40187</v>
-      </c>
-      <c r="E10" s="2">
-        <v>40190</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="49.5">
-      <c r="A11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2">
-        <v>40018</v>
-      </c>
-      <c r="C11" s="2">
-        <v>40138</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>40252</v>
-      </c>
-      <c r="E11" s="2">
-        <v>40256</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>40118</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="G11" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="J11" s="4" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="2">
-        <v>40026</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <v>40118</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="G12" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="12" spans="1:11" ht="33">
+      <c r="A12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="7">
+        <v>40057</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
+        <v>40210</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="4"/>
-      <c r="J12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="10" t="s">
+      <c r="J12" s="4"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="49.5">
+      <c r="A13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2">
+        <v>40060</v>
+      </c>
+      <c r="C13" s="2">
+        <v>40188</v>
+      </c>
+      <c r="D13" s="2">
+        <v>40321</v>
+      </c>
+      <c r="E13" s="2">
+        <v>40325</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="33">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:11" ht="49.5">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2">
+        <v>40084</v>
+      </c>
+      <c r="C14" s="2">
+        <v>40168</v>
+      </c>
+      <c r="D14" s="2">
+        <v>40266</v>
+      </c>
+      <c r="E14" s="2">
+        <v>40270</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="49.5">
+      <c r="A15" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2">
+        <v>40087</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>40269</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="7">
-        <v>40057</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
-        <v>40210</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" ht="33">
-      <c r="A14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="2">
-        <v>40060</v>
-      </c>
-      <c r="C14" s="2">
-        <v>40188</v>
-      </c>
-      <c r="D14" s="2">
-        <v>40321</v>
-      </c>
-      <c r="E14" s="2">
-        <v>40325</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="33">
-      <c r="A15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2">
-        <v>40084</v>
-      </c>
-      <c r="C15" s="2">
-        <v>40168</v>
-      </c>
-      <c r="D15" s="2">
-        <v>40266</v>
-      </c>
-      <c r="E15" s="2">
-        <v>40270</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>20</v>
+      <c r="G15" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="H15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="33">
+        <v>92</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" ht="66">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>40087</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>40269</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="4"/>
+        <v>40301</v>
+      </c>
+      <c r="E16" s="2">
+        <v>40304</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="J16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" ht="49.5">
+        <v>9</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="B17" s="2">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>40301</v>
-      </c>
-      <c r="E17" s="2">
-        <v>40304</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>15</v>
+        <v>40238</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>104</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" ht="33">
       <c r="A18" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B18" s="2">
         <v>40118</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>40238</v>
+        <v>40299</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="H18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="3" t="s">
-        <v>75</v>
+      <c r="A19" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="B19" s="2">
         <v>40118</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" ht="33">
+    <row r="20" spans="1:11" ht="49.5">
       <c r="A20" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B20" s="2">
-        <v>40118</v>
+        <v>40179</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
         <v>40330</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="J20" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="J20" s="4"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" ht="33">
-      <c r="A21" s="3" t="s">
-        <v>72</v>
+    <row r="21" spans="1:11" ht="49.5">
+      <c r="A21" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="B21" s="2">
         <v>40179</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
-        <v>40330</v>
+        <v>40391</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" ht="49.5">
@@ -1783,210 +1847,190 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
-        <v>40391</v>
+        <v>40452</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="H22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="49.5">
-      <c r="A23" s="3" t="s">
-        <v>69</v>
+      <c r="A23" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="B23" s="2">
-        <v>40179</v>
+        <v>40238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
-        <v>40452</v>
+        <v>40422</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" ht="49.5">
-      <c r="A24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="2">
+    <row r="24" spans="1:11" ht="66">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7">
         <v>40238</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
-        <v>40422</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="4"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7">
+        <v>40442</v>
+      </c>
+      <c r="E24" s="7">
+        <v>40445</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="J24" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" ht="66">
-      <c r="A25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="7">
+        <v>39</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="33">
+      <c r="A25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="2">
         <v>40238</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7">
-        <v>40442</v>
-      </c>
-      <c r="E25" s="7">
-        <v>40445</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="33">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>40452</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" ht="49.5">
       <c r="A26" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B26" s="2">
         <v>40238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
-        <v>40452</v>
+        <v>40510</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>20</v>
+      <c r="G26" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="H26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="33">
       <c r="A27" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B27" s="2">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
-        <v>40510</v>
+        <v>40391</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="J27" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="J27" s="4"/>
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" ht="33">
       <c r="A28" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B28" s="2">
         <v>40269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
-        <v>40391</v>
+        <v>40452</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="1:11" ht="33">
-      <c r="A29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="2">
-        <v>40269</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <v>40452</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="J29" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>70</v>
+      <c r="J28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K17" r:id="rId1"/>
-    <hyperlink ref="K10" r:id="rId2"/>
-    <hyperlink ref="K14" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K4" r:id="rId5"/>
-    <hyperlink ref="K9" r:id="rId6"/>
-    <hyperlink ref="K29" r:id="rId7"/>
-    <hyperlink ref="K3" r:id="rId8"/>
-    <hyperlink ref="K8" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
-    <hyperlink ref="K15" r:id="rId12"/>
-    <hyperlink ref="K7" r:id="rId13"/>
-    <hyperlink ref="K6" r:id="rId14"/>
+    <hyperlink ref="K16" r:id="rId1"/>
+    <hyperlink ref="K9" r:id="rId2"/>
+    <hyperlink ref="K13" r:id="rId3"/>
+    <hyperlink ref="K4" r:id="rId4"/>
+    <hyperlink ref="K3" r:id="rId5"/>
+    <hyperlink ref="K8" r:id="rId6"/>
+    <hyperlink ref="K28" r:id="rId7"/>
+    <hyperlink ref="K2" r:id="rId8"/>
+    <hyperlink ref="K7" r:id="rId9"/>
+    <hyperlink ref="K10" r:id="rId10"/>
+    <hyperlink ref="K11" r:id="rId11"/>
+    <hyperlink ref="K14" r:id="rId12"/>
+    <hyperlink ref="K6" r:id="rId13"/>
+    <hyperlink ref="K5" r:id="rId14"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId15"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId15"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
   <tableParts count="1">
     <tablePart r:id="rId16"/>
   </tableParts>
@@ -1997,7 +2041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2017,16 +2061,16 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -2035,7 +2079,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
@@ -2046,84 +2090,84 @@
     </row>
     <row r="3" spans="1:9" ht="82.5">
       <c r="A3" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="33">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="49.5">
       <c r="A5" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="33">
       <c r="A6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>

--- a/branches/EndNote/ConferenceList.xlsx
+++ b/branches/EndNote/ConferenceList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="148">
   <si>
     <t>Conference</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,10 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Miami, USA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GLOBECOM 2010, 8th
 Global Communications Conference</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -550,11 +546,6 @@
   </si>
   <si>
     <t>http://cse.stfx.ca/~socialcom09/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IEEE
-Signal Processing Society</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -570,10 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.ee.ust.hk/~Twireless/Twireless.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IEEE
 Communications Society</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,6 +663,53 @@
     <t>ACM / IEEE
 Signal Processing
 Society</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE
+Signal Processing Society
+Communications Society</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miami, Florida, USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ieee-globecom.org/2010/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context and Location-Aware Wireless
+Services and Applications
+Wireless Emergency and Security Systems
+Personalization, Service Discovery, Profiles
+and Profiling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ieee-wcnc.org/2009/callforpapers.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page under 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WCNC 2010, 8th
+Wireless Communications &amp; Networking Conference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ewh.ieee.org/tc/sensors/SJ/Sensors_journal.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ee.ust.hk/~Twireless/Twireless.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,7 +774,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,6 +823,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -878,7 +915,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:K28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:K29" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <sortState ref="A3:K27">
     <sortCondition ref="B3:B27"/>
     <sortCondition ref="C3:C27"/>
@@ -1207,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1237,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1266,7 +1303,7 @@
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2">
         <v>39913</v>
@@ -1291,7 +1328,7 @@
         <v>51</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="66">
@@ -1332,7 +1369,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2">
         <v>39995</v>
@@ -1347,7 +1384,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>52</v>
@@ -1364,7 +1401,7 @@
     </row>
     <row r="5" spans="1:11" ht="49.5">
       <c r="A5" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2">
         <v>39933</v>
@@ -1379,25 +1416,25 @@
         <v>40056</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="49.5">
       <c r="A6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2">
         <v>39934</v>
@@ -1412,22 +1449,22 @@
         <v>40115</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1">
@@ -1457,7 +1494,7 @@
         <v>51</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="82.5">
@@ -1480,7 +1517,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>24</v>
@@ -1489,7 +1526,7 @@
         <v>23</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>59</v>
@@ -1515,7 +1552,7 @@
         <v>30</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>32</v>
@@ -1550,17 +1587,17 @@
         <v>35</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1">
@@ -1583,7 +1620,7 @@
         <v>51</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="33">
@@ -1626,17 +1663,17 @@
         <v>40</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="49.5">
@@ -1659,19 +1696,19 @@
         <v>37</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5">
       <c r="A15" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2">
         <v>40087</v>
@@ -1684,11 +1721,11 @@
         <v>63</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K15" s="10"/>
     </row>
@@ -1710,24 +1747,24 @@
         <v>15</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="2">
         <v>40118</v>
@@ -1737,20 +1774,20 @@
         <v>40238</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="33">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2">
         <v>40118</v>
@@ -1767,13 +1804,13 @@
       </c>
       <c r="H18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="33">
       <c r="A19" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2">
         <v>40118</v>
@@ -1790,13 +1827,13 @@
       </c>
       <c r="H19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="49.5">
       <c r="A20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="2">
         <v>40179</v>
@@ -1809,7 +1846,7 @@
         <v>63</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H20" s="4"/>
       <c r="J20" s="4"/>
@@ -1817,7 +1854,7 @@
     </row>
     <row r="21" spans="1:11" ht="49.5">
       <c r="A21" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="2">
         <v>40179</v>
@@ -1834,13 +1871,13 @@
       </c>
       <c r="H21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" ht="49.5">
       <c r="A22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2">
         <v>40179</v>
@@ -1854,13 +1891,13 @@
       </c>
       <c r="H22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="49.5">
       <c r="A23" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2">
         <v>40238</v>
@@ -1877,7 +1914,7 @@
       </c>
       <c r="H23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K23" s="10"/>
     </row>
@@ -1937,33 +1974,35 @@
     </row>
     <row r="26" spans="1:11" ht="49.5">
       <c r="A26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2">
         <v>40238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
-        <v>40510</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>40518</v>
+      </c>
+      <c r="E26" s="2">
+        <v>40522</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H26" s="4"/>
       <c r="J26" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K26" s="10"/>
+        <v>97</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="33">
       <c r="A27" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="2">
         <v>40269</v>
@@ -1973,10 +2012,10 @@
         <v>40391</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="H27" s="4"/>
       <c r="J27" s="4"/>
@@ -1984,7 +2023,7 @@
     </row>
     <row r="28" spans="1:11" ht="33">
       <c r="A28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="2">
         <v>40269</v>
@@ -2001,10 +2040,41 @@
       </c>
       <c r="H28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="82.5">
+      <c r="A29" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="7">
+        <v>40269</v>
+      </c>
+      <c r="C29" s="7">
+        <v>40147</v>
+      </c>
+      <c r="D29" s="7">
+        <v>40087</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2024,15 +2094,17 @@
     <hyperlink ref="K14" r:id="rId12"/>
     <hyperlink ref="K6" r:id="rId13"/>
     <hyperlink ref="K5" r:id="rId14"/>
+    <hyperlink ref="K26" r:id="rId15"/>
+    <hyperlink ref="K29" r:id="rId16"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId15"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId17"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="10" max="1048575" man="1"/>
   </colBreaks>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2041,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I6"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2055,7 +2127,7 @@
     <col min="6" max="6" width="40.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.75" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2067,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>50</v>
@@ -2089,68 +2161,68 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="82.5">
-      <c r="A3" s="3" t="s">
-        <v>130</v>
+      <c r="A3" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="10" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="33">
       <c r="A4" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="5" spans="1:9" ht="49.5">
-      <c r="A5" s="5" t="s">
-        <v>129</v>
+      <c r="A5" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="33">
@@ -2161,16 +2233,18 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2178,12 +2252,13 @@
     <hyperlink ref="I3" r:id="rId1"/>
     <hyperlink ref="I4" r:id="rId2"/>
     <hyperlink ref="I5" r:id="rId3"/>
+    <hyperlink ref="I6" r:id="rId4"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId4"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/branches/EndNote/ConferenceList.xlsx
+++ b/branches/EndNote/ConferenceList.xlsx
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.ieee-ccnc.org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INFOCOM 2010, 29th</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,6 +706,10 @@
   </si>
   <si>
     <t>http://www.ee.ust.hk/~Twireless/Twireless.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ieee-ccnc.org</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2">
         <v>39913</v>
@@ -1318,17 +1318,17 @@
         <v>39997</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="H2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="66">
@@ -1358,10 +1358,10 @@
         <v>17</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="49.5">
@@ -1369,7 +1369,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2">
         <v>39995</v>
@@ -1384,24 +1384,24 @@
         <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="49.5">
       <c r="A5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2">
         <v>39933</v>
@@ -1416,25 +1416,25 @@
         <v>40056</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="49.5">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2">
         <v>39934</v>
@@ -1449,27 +1449,27 @@
         <v>40115</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2">
         <v>39941</v>
@@ -1484,17 +1484,17 @@
         <v>39988</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="82.5">
@@ -1517,7 +1517,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>24</v>
@@ -1526,10 +1526,10 @@
         <v>23</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="66">
@@ -1552,7 +1552,7 @@
         <v>30</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>32</v>
@@ -1561,15 +1561,15 @@
         <v>31</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="49.5">
       <c r="A10" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2">
         <v>40018</v>
@@ -1584,25 +1584,25 @@
         <v>40256</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2">
         <v>40026</v>
@@ -1613,19 +1613,19 @@
       </c>
       <c r="E11" s="2"/>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="33">
       <c r="A12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="7">
         <v>40057</v>
@@ -1635,7 +1635,7 @@
         <v>40210</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="13" spans="1:11" ht="49.5">
       <c r="A13" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2">
         <v>40060</v>
@@ -1660,25 +1660,25 @@
         <v>40325</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="49.5">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2">
         <v>40084</v>
@@ -1693,22 +1693,22 @@
         <v>40270</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5">
       <c r="A15" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="2">
         <v>40087</v>
@@ -1718,14 +1718,14 @@
         <v>40269</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K15" s="10"/>
     </row>
@@ -1747,24 +1747,24 @@
         <v>15</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2">
         <v>40118</v>
@@ -1774,20 +1774,20 @@
         <v>40238</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="H17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="33">
       <c r="A18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2">
         <v>40118</v>
@@ -1797,20 +1797,20 @@
         <v>40299</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="33">
       <c r="A19" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2">
         <v>40118</v>
@@ -1820,20 +1820,20 @@
         <v>40330</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="49.5">
       <c r="A20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2">
         <v>40179</v>
@@ -1843,10 +1843,10 @@
         <v>40330</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" s="4"/>
       <c r="J20" s="4"/>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="21" spans="1:11" ht="49.5">
       <c r="A21" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2">
         <v>40179</v>
@@ -1864,20 +1864,20 @@
         <v>40391</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" ht="49.5">
       <c r="A22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2">
         <v>40179</v>
@@ -1887,17 +1887,17 @@
         <v>40452</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="49.5">
       <c r="A23" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="2">
         <v>40238</v>
@@ -1907,14 +1907,14 @@
         <v>40422</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K23" s="10"/>
     </row>
@@ -1945,7 +1945,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>12</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="25" spans="1:11" ht="33">
       <c r="A25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2">
         <v>40238</v>
@@ -1963,7 +1963,7 @@
         <v>40452</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>19</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="26" spans="1:11" ht="49.5">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2">
         <v>40238</v>
@@ -1987,22 +1987,22 @@
         <v>40522</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H26" s="4"/>
       <c r="J26" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="33">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2">
         <v>40269</v>
@@ -2012,10 +2012,10 @@
         <v>40391</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H27" s="4"/>
       <c r="J27" s="4"/>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="28" spans="1:11" ht="33">
       <c r="A28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="2">
         <v>40269</v>
@@ -2033,22 +2033,22 @@
         <v>40452</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="82.5">
       <c r="A29" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" s="7">
         <v>40269</v>
@@ -2060,21 +2060,21 @@
         <v>40087</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2133,16 +2133,16 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -2162,88 +2162,88 @@
     </row>
     <row r="3" spans="1:9" ht="82.5">
       <c r="A3" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="33">
       <c r="A4" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="49.5">
       <c r="A5" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="33">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/branches/EndNote/ConferenceList.xlsx
+++ b/branches/EndNote/ConferenceList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="149">
   <si>
     <t>Conference</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,10 +676,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Context and Location-Aware Wireless
 Services and Applications
 Wireless Emergency and Security Systems
@@ -688,10 +684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.ieee-wcnc.org/2009/callforpapers.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Page under 6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,6 +703,17 @@
   <si>
     <t>http://www.ieee-ccnc.org</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sydney, Austraila</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ieee-wcnc.org/index.html</t>
   </si>
 </sst>
 </file>
@@ -1246,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1564,7 +1567,7 @@
         <v>59</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="49.5">
@@ -1638,7 +1641,9 @@
         <v>62</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="9"/>
@@ -2048,33 +2053,35 @@
     </row>
     <row r="29" spans="1:11" ht="82.5">
       <c r="A29" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B29" s="7">
-        <v>40269</v>
+        <v>40074</v>
       </c>
       <c r="C29" s="7">
         <v>40147</v>
       </c>
       <c r="D29" s="7">
-        <v>40087</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="6"/>
+        <v>40286</v>
+      </c>
+      <c r="E29" s="7">
+        <v>40289</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="G29" s="5" t="s">
         <v>130</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="J29" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>142</v>
+      <c r="K29" s="11" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +2185,7 @@
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="33">
@@ -2243,7 +2250,7 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/branches/EndNote/ConferenceList.xlsx
+++ b/branches/EndNote/ConferenceList.xlsx
@@ -636,11 +636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2009-04-27
-2009-05-17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sensei</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -714,6 +709,11 @@
   </si>
   <si>
     <t>http://www.ieee-wcnc.org/index.html</t>
+  </si>
+  <si>
+    <t>2009-04-27
+2009-05-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,6 +829,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -919,10 +922,10 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:K29" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <sortState ref="A3:K27">
-    <sortCondition ref="B3:B27"/>
-    <sortCondition ref="C3:C27"/>
-    <sortCondition ref="D3:D27"/>
+  <sortState ref="A2:K29">
+    <sortCondition ref="B2:B29"/>
+    <sortCondition ref="C2:C29"/>
+    <sortCondition ref="D2:D29"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" name="Conference" dataDxfId="21"/>
@@ -1249,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1304,7 +1307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
+    <row r="2" spans="1:11" ht="24.95" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
@@ -1372,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2">
         <v>39995</v>
@@ -1387,7 +1390,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>51</v>
@@ -1470,7 +1473,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1">
+    <row r="7" spans="1:11" ht="24.95" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -1536,7 +1539,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="66">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="2">
@@ -1567,7 +1570,7 @@
         <v>59</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="49.5">
@@ -1603,7 +1606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1">
+    <row r="11" spans="1:11" ht="24.95" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
@@ -1642,7 +1645,7 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H12" s="4"/>
       <c r="J12" s="4"/>
@@ -1681,148 +1684,158 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="49.5">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:11" ht="82.5">
+      <c r="A14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="7">
+        <v>40074</v>
+      </c>
+      <c r="C14" s="7">
+        <v>40147</v>
+      </c>
+      <c r="D14" s="7">
+        <v>40286</v>
+      </c>
+      <c r="E14" s="7">
+        <v>40289</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="49.5">
+      <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
         <v>40084</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <v>40168</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>40266</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>40270</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="J14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="49.5">
-      <c r="A15" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="2">
-        <v>40087</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <v>40269</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="H15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" ht="66">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>91</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="49.5">
+      <c r="A16" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="B16" s="2">
         <v>40087</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>40301</v>
-      </c>
-      <c r="E16" s="2">
-        <v>40304</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>15</v>
+        <v>40269</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>100</v>
-      </c>
+      <c r="H16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="66">
       <c r="A17" s="3" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>40118</v>
+        <v>40087</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>40238</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="4"/>
+        <v>40301</v>
+      </c>
+      <c r="E17" s="2">
+        <v>40304</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="J17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" ht="33">
+        <v>9</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B18" s="2">
         <v>40118</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>40299</v>
+        <v>40238</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="H18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="15" t="s">
-        <v>71</v>
+      <c r="A19" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B19" s="2">
         <v>40118</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>40330</v>
+        <v>40299</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>62</v>
@@ -1832,16 +1845,16 @@
       </c>
       <c r="H19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" ht="49.5">
-      <c r="A20" s="3" t="s">
-        <v>69</v>
+    <row r="20" spans="1:11" ht="33">
+      <c r="A20" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="B20" s="2">
-        <v>40179</v>
+        <v>40118</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
@@ -1850,259 +1863,249 @@
       <c r="E20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>130</v>
+      <c r="G20" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="49.5">
-      <c r="A21" s="15" t="s">
-        <v>65</v>
+      <c r="A21" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B21" s="2">
         <v>40179</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
-        <v>40391</v>
+        <v>40330</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>16</v>
+      <c r="G21" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="J21" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="J21" s="4"/>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" ht="49.5">
-      <c r="A22" s="3" t="s">
-        <v>66</v>
+      <c r="A22" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="B22" s="2">
         <v>40179</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
-        <v>40452</v>
+        <v>40391</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="49.5">
-      <c r="A23" s="15" t="s">
-        <v>64</v>
+      <c r="A23" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B23" s="2">
-        <v>40238</v>
+        <v>40179</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H23" s="4"/>
       <c r="J23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" ht="49.5">
+      <c r="A24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="2">
+        <v>40238</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>40422</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="J24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11" ht="66">
-      <c r="A24" s="5" t="s">
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" ht="66">
+      <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B25" s="7">
         <v>40238</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7">
         <v>40442</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="7">
         <v>40445</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K25" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="33">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:11" ht="33">
+      <c r="A26" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B25" s="2">
-        <v>40238</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
-        <v>40452</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="1:11" ht="49.5">
-      <c r="A26" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="B26" s="2">
         <v>40238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
-        <v>40518</v>
-      </c>
-      <c r="E26" s="2">
-        <v>40522</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>130</v>
+        <v>40452</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H26" s="4"/>
-      <c r="J26" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="33">
+      <c r="J26" s="4"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" ht="49.5">
       <c r="A27" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2">
-        <v>40269</v>
+        <v>40238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
-        <v>40391</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>76</v>
+        <v>40518</v>
+      </c>
+      <c r="E27" s="2">
+        <v>40522</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="10"/>
+      <c r="J27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="33">
       <c r="A28" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2">
         <v>40269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
+        <v>40391</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" ht="33">
+      <c r="A29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2">
+        <v>40269</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
         <v>40452</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="J28" s="4" t="s">
+      <c r="H29" s="4"/>
+      <c r="J29" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K29" s="11" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="82.5">
-      <c r="A29" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="7">
-        <v>40074</v>
-      </c>
-      <c r="C29" s="7">
-        <v>40147</v>
-      </c>
-      <c r="D29" s="7">
-        <v>40286</v>
-      </c>
-      <c r="E29" s="7">
-        <v>40289</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K16" r:id="rId1"/>
+    <hyperlink ref="K17" r:id="rId1"/>
     <hyperlink ref="K9" r:id="rId2"/>
     <hyperlink ref="K13" r:id="rId3"/>
     <hyperlink ref="K4" r:id="rId4"/>
     <hyperlink ref="K3" r:id="rId5"/>
     <hyperlink ref="K8" r:id="rId6"/>
-    <hyperlink ref="K28" r:id="rId7"/>
+    <hyperlink ref="K29" r:id="rId7"/>
     <hyperlink ref="K2" r:id="rId8"/>
     <hyperlink ref="K7" r:id="rId9"/>
     <hyperlink ref="K10" r:id="rId10"/>
     <hyperlink ref="K11" r:id="rId11"/>
-    <hyperlink ref="K14" r:id="rId12"/>
+    <hyperlink ref="K15" r:id="rId12"/>
     <hyperlink ref="K6" r:id="rId13"/>
     <hyperlink ref="K5" r:id="rId14"/>
-    <hyperlink ref="K26" r:id="rId15"/>
-    <hyperlink ref="K29" r:id="rId16"/>
+    <hyperlink ref="K27" r:id="rId15"/>
+    <hyperlink ref="K14" r:id="rId16"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2175,7 +2178,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>113</v>
@@ -2185,7 +2188,7 @@
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="33">
@@ -2250,7 +2253,7 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
